--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value270.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value270.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5531746847279163</v>
+        <v>1.625368237495422</v>
       </c>
       <c r="B1">
-        <v>0.7556038959060148</v>
+        <v>1.914119839668274</v>
       </c>
       <c r="C1">
-        <v>1.304789451442586</v>
+        <v>2.016417980194092</v>
       </c>
       <c r="D1">
-        <v>3.085488326262143</v>
+        <v>2.36760425567627</v>
       </c>
       <c r="E1">
-        <v>2.72966218430549</v>
+        <v>3.216626405715942</v>
       </c>
     </row>
   </sheetData>
